--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1333.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1333.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.087949562103246</v>
+        <v>1.075936913490295</v>
       </c>
       <c r="B1">
-        <v>2.586273093141922</v>
+        <v>2.319365978240967</v>
       </c>
       <c r="C1">
-        <v>4.717210007754608</v>
+        <v>9.471441268920898</v>
       </c>
       <c r="D1">
-        <v>2.424147573872266</v>
+        <v>2.283515214920044</v>
       </c>
       <c r="E1">
-        <v>1.208494601682297</v>
+        <v>1.309595704078674</v>
       </c>
     </row>
   </sheetData>
